--- a/data/trans_orig/P21D_4_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_4_R-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3713</v>
+        <v>3382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002288974292006969</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01288594243291444</v>
+        <v>0.0117382027650415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3842</v>
+        <v>3328</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002004284905160814</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01187657685540246</v>
+        <v>0.0102885372003655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4434</v>
+        <v>4027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002138394194122303</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007250228245417905</v>
+        <v>0.006584709564129544</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>287463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284410</v>
+        <v>284741</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>288123</v>
@@ -821,7 +821,7 @@
         <v>0.997711025707993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9871140575670874</v>
+        <v>0.9882617972349587</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>322861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319667</v>
+        <v>320181</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>323509</v>
@@ -842,7 +842,7 @@
         <v>0.9979957150948392</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9881234231445977</v>
+        <v>0.9897114627996345</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>610324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>607198</v>
+        <v>607605</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>611632</v>
@@ -863,7 +863,7 @@
         <v>0.9978616058058777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9927497717545822</v>
+        <v>0.9934152904358705</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -971,19 +971,19 @@
         <v>4457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2068</v>
+        <v>1801</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9152</v>
+        <v>8787</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.008865053759915687</v>
+        <v>0.008865053759915689</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004113238984348417</v>
+        <v>0.003581760672952351</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01820240207142505</v>
+        <v>0.01747569663401029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -992,19 +992,19 @@
         <v>4457</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1674</v>
+        <v>1841</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8949</v>
+        <v>9001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004581008228638425</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001720702940220939</v>
+        <v>0.001891825239073591</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009196891356071098</v>
+        <v>0.009250496674552718</v>
       </c>
     </row>
     <row r="8">
@@ -1034,19 +1034,19 @@
         <v>498345</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>493650</v>
+        <v>494015</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500734</v>
+        <v>501001</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9911349462400844</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9817975979285757</v>
+        <v>0.9825243033659903</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9958867610156517</v>
+        <v>0.9964182393270475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1123</v>
@@ -1055,19 +1055,19 @@
         <v>968553</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>964061</v>
+        <v>964009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>971336</v>
+        <v>971169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9954189917713616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.990803108643929</v>
+        <v>0.9907495033254465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9982792970597789</v>
+        <v>0.9981081747609263</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5138</v>
+        <v>4158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002641470386180296</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01364430107725905</v>
+        <v>0.01104063277481415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1180,19 +1180,19 @@
         <v>1841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5583</v>
+        <v>6202</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.004869471767675994</v>
+        <v>0.004869471767675995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001352364642074749</v>
+        <v>0.00134910764525235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01476821255373633</v>
+        <v>0.01640569367614551</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1201,19 +1201,19 @@
         <v>2836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7601</v>
+        <v>6981</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003757639835831509</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0009627312671510384</v>
+        <v>0.000932294923450423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01007295441736542</v>
+        <v>0.009250866714899775</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>375589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>371446</v>
+        <v>372426</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>376584</v>
@@ -1239,7 +1239,7 @@
         <v>0.9973585296138198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9863556989227409</v>
+        <v>0.988959367225186</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,19 +1251,19 @@
         <v>376212</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>372470</v>
+        <v>371851</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>377542</v>
+        <v>377543</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9951305282323241</v>
+        <v>0.9951305282323242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9852317874462636</v>
+        <v>0.9835943063238543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9986476353579252</v>
+        <v>0.9986508923547477</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>798</v>
@@ -1272,19 +1272,19 @@
         <v>751800</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>747035</v>
+        <v>747655</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>753909</v>
+        <v>753932</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9962423601641685</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9899270455826343</v>
+        <v>0.9907491332851001</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9990372687328489</v>
+        <v>0.9990677050765496</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5720</v>
+        <v>6434</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00399333014459445</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01319943116286864</v>
+        <v>0.01484708887642751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1397,19 +1397,19 @@
         <v>7335</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3385</v>
+        <v>3643</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14314</v>
+        <v>13824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01496949800764947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006907171856220084</v>
+        <v>0.007435382371835319</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02921218560728855</v>
+        <v>0.02821232312984121</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1418,19 +1418,19 @@
         <v>9066</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4950</v>
+        <v>4776</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16499</v>
+        <v>16785</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009818122010839512</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005360807436046732</v>
+        <v>0.005172765153241741</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0178681722428159</v>
+        <v>0.01817768647419039</v>
       </c>
     </row>
     <row r="14">
@@ -1447,16 +1447,16 @@
         <v>431628</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427639</v>
+        <v>426925</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>433359</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9960066698554054</v>
+        <v>0.9960066698554055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9868005688371314</v>
+        <v>0.9851529111235729</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,19 +1468,19 @@
         <v>482675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>475696</v>
+        <v>476186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>486625</v>
+        <v>486367</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9850305019923505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9707878143927114</v>
+        <v>0.9717876768701588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.99309282814378</v>
+        <v>0.9925646176281645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1079</v>
@@ -1489,19 +1489,19 @@
         <v>914304</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>906871</v>
+        <v>906585</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>918420</v>
+        <v>918594</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9901818779891605</v>
+        <v>0.9901818779891606</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.982131827757185</v>
+        <v>0.9818223135258097</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9946391925639533</v>
+        <v>0.9948272348467583</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002158288616298389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1614,19 +1614,19 @@
         <v>14282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008429009647890133</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1635,19 +1635,19 @@
         <v>17667</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00541482994782403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>1564889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1559421</v>
+        <v>1559852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1567148</v>
+        <v>1567613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9978417113837017</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9943551128320888</v>
+        <v>0.9946296758019477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9992822609451122</v>
+        <v>0.9995785211200459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2351</v>
@@ -1685,19 +1685,19 @@
         <v>1680092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1671675</v>
+        <v>1672037</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1685249</v>
+        <v>1685361</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.99157099035211</v>
+        <v>0.9915709903521098</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.986603125834052</v>
+        <v>0.9868169778288711</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.994614825119799</v>
+        <v>0.99468034652802</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3807</v>
@@ -1706,19 +1706,19 @@
         <v>3244981</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3235958</v>
+        <v>3236440</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3251085</v>
+        <v>3251134</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9945851700521759</v>
+        <v>0.9945851700521758</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9918194719980979</v>
+        <v>0.9919671126917203</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9964559382696468</v>
+        <v>0.9964709874998431</v>
       </c>
     </row>
     <row r="18">
